--- a/xlsx/sc_RankBonusData.xlsx
+++ b/xlsx/sc_RankBonusData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A41B7A6-A43D-4B95-8AED-D4BB3902A5CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE4A7AC-BFC0-4056-A393-DF5B76C0A345}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="1845" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="5">
   <si>
     <t>ID</t>
   </si>
@@ -35,6 +35,9 @@
   <si>
     <t>1</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -96,11 +99,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1264,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1283,61 +1285,253 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5">
         <v>50</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5">
         <v>100</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5">
+        <v>150</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5">
+        <v>200</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5">
+        <v>250</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5">
+        <v>300</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5">
+        <v>350</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5">
+        <v>400</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5">
+        <v>450</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5">
+        <v>500</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5">
+        <v>550</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5">
+        <v>600</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5">
+        <v>650</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5">
+        <v>700</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5">
+        <v>750</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5">
+        <v>800</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5">
+        <v>850</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5">
+        <v>900</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5">
+        <v>950</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
